--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS229_Machine_Learning\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326A131-7E9D-48F4-916E-D711D473F15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D628A0-EDBE-42AE-88AC-D9A967709CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Atttibute</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>Missing Count</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -163,12 +176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,305 +545,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.25</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>0.75</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>3.8450519999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>3.3695780000000002</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>6</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>120.894531</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>31.972618000000001</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>99</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>117</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>140.25</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>69.105468999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>19.355806999999999</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>62</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>72</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>80</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>227</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>20.536458</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>15.952218</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>23</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>32</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>374</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>79.799479000000005</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>115.24400199999999</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>30.5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>127.25</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>31.992578000000002</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>7.8841599999999996</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>27.3</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>36.6</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.47187600000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.33132899999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.24374999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.3725</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.62624999999999997</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>33.240884999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>11.760232</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>21</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>24</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>29</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>41</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>81</v>
       </c>
     </row>
@@ -842,4 +852,39 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2964C2C-6F3A-4496-8BCE-57DE1EF97B2E}">
+  <dimension ref="E6:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS229_Machine_Learning\final_project_cs229_spring2023\Final_Writeup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D628A0-EDBE-42AE-88AC-D9A967709CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921ECD45-FF12-4EF0-AE55-DEB6D3F4435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Prelim" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Atttibute</t>
   </si>
@@ -110,14 +121,39 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Test Size</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Accuracy</t>
+  </si>
+  <si>
+    <t>Positive Accuracy</t>
+  </si>
+  <si>
+    <t>Negative Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -172,11 +208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -202,10 +239,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,17 +600,17 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -591,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -687,7 +738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -719,7 +770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +802,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,7 +834,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,7 +866,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -856,35 +907,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2964C2C-6F3A-4496-8BCE-57DE1EF97B2E}">
-  <dimension ref="E6:E9"/>
+  <dimension ref="E6:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
+    <row r="6" spans="5:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+      <c r="F7" s="11">
+        <v>231</v>
+      </c>
+      <c r="G7" s="11">
+        <v>123</v>
+      </c>
+      <c r="H7" s="11">
+        <v>31</v>
+      </c>
+      <c r="I7" s="11">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11">
+        <v>49</v>
+      </c>
+      <c r="K7" s="12">
+        <f>(G7+J7)/F7</f>
+        <v>0.74458874458874458</v>
+      </c>
+      <c r="L7" s="12">
+        <f>J7/(J7+I7)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M7" s="12">
+        <f>G7/(G7+H7)</f>
+        <v>0.79870129870129869</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
+      <c r="F8" s="11">
+        <v>231</v>
+      </c>
+      <c r="G8" s="11">
+        <v>119</v>
+      </c>
+      <c r="H8" s="11">
+        <v>29</v>
+      </c>
+      <c r="I8" s="11">
+        <v>32</v>
+      </c>
+      <c r="J8" s="11">
+        <v>51</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" ref="K8:K9" si="0">(G8+J8)/F8</f>
+        <v>0.73593073593073588</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" ref="L8:L9" si="1">J8/(J8+I8)</f>
+        <v>0.61445783132530118</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" ref="M8:M9" si="2">G8/(G8+H8)</f>
+        <v>0.80405405405405406</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="13" t="s">
         <v>27</v>
+      </c>
+      <c r="F9" s="14">
+        <v>231</v>
+      </c>
+      <c r="G9" s="14">
+        <v>126</v>
+      </c>
+      <c r="H9" s="14">
+        <v>29</v>
+      </c>
+      <c r="I9" s="14">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14">
+        <v>51</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.76623376623376627</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="2"/>
+        <v>0.81290322580645158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921ECD45-FF12-4EF0-AE55-DEB6D3F4435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC876AF9-6D7A-4C6B-A00B-060F70D59F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
     <sheet name="Prelim" sheetId="2" r:id="rId2"/>
+    <sheet name="PCA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Atttibute</t>
   </si>
@@ -145,6 +146,42 @@
   </si>
   <si>
     <t>Negative Accuracy</t>
+  </si>
+  <si>
+    <t>Total A</t>
+  </si>
+  <si>
+    <t>P A</t>
+  </si>
+  <si>
+    <t>N A</t>
+  </si>
+  <si>
+    <t>PCA-7</t>
+  </si>
+  <si>
+    <t>PCA-6</t>
+  </si>
+  <si>
+    <t>PCA-5</t>
+  </si>
+  <si>
+    <t>PCA-4</t>
+  </si>
+  <si>
+    <t>PCA-3</t>
+  </si>
+  <si>
+    <t>PCA-2</t>
+  </si>
+  <si>
+    <t>PCA-1</t>
+  </si>
+  <si>
+    <t>k-means</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -153,7 +190,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,12 +208,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -213,7 +256,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -242,16 +285,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -909,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2964C2C-6F3A-4496-8BCE-57DE1EF97B2E}">
   <dimension ref="E6:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:M9"/>
     </sheetView>
   </sheetViews>
@@ -1050,4 +1098,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D7862-5129-47A8-96E8-545EF384A25C}">
+  <dimension ref="B2:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>49</v>
+      </c>
+      <c r="H3" s="16">
+        <f>(D3+G3)/231</f>
+        <v>0.74458874458874458</v>
+      </c>
+      <c r="I3" s="16">
+        <f>G3/(G3+E3)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J3" s="16">
+        <f>D3/(D3+F3)</f>
+        <v>0.79870129870129869</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H10" si="0">(D4+G4)/231</f>
+        <v>0.74458874458874458</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:I15" si="1">G4/(G4+E4)</f>
+        <v>0.64</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J15" si="2">D4/(D4+F4)</f>
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="K4" s="17">
+        <f>H4-$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f>I4-$I$3</f>
+        <v>3.6363636363636598E-3</v>
+      </c>
+      <c r="M4" s="17">
+        <f>J4-$J$3</f>
+        <v>-3.8295038295038664E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18">
+        <v>126</v>
+      </c>
+      <c r="E5" s="18">
+        <v>26</v>
+      </c>
+      <c r="F5" s="18">
+        <v>31</v>
+      </c>
+      <c r="G5" s="18">
+        <v>48</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75324675324675328</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.80254777070063699</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" ref="K5:K15" si="3">H5-$H$3</f>
+        <v>8.6580086580086979E-3</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" ref="L5:L15" si="4">I5-$I$3</f>
+        <v>1.2285012285012331E-2</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" ref="M5:M15" si="5">J5-$J$3</f>
+        <v>3.8464719993382968E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>122</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.72294372294372289</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="2"/>
+        <v>0.77707006369426757</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.1645021645021689E-2</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="4"/>
+        <v>-2.8255528255528239E-2</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.1631235007031124E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>121</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7186147186147186</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="2"/>
+        <v>0.77564102564102566</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.5974025974025983E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="4"/>
+        <v>-3.6363636363636376E-2</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.3060273060273029E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>122</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7186147186147186</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="2"/>
+        <v>0.77215189873417722</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.5974025974025983E-2</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="4"/>
+        <v>-3.3623910336239127E-2</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.6549399967121468E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.70129870129870131</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75308641975308643</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.3290043290043267E-2</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="4"/>
+        <v>-5.6653491436100101E-2</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="5"/>
+        <v>-4.5614878948212256E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>122</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.70129870129870131</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75308641975308643</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.3290043290043267E-2</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="4"/>
+        <v>-5.6653491436100101E-2</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="5"/>
+        <v>-4.5614878948212256E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11" s="16">
+        <f>(D11+G11)/169</f>
+        <v>0.98816568047337283</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98245614035087714</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="3"/>
+        <v>0.24357693588462825</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="4"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="5"/>
+        <v>0.18375484164957845</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>135</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>65</v>
+      </c>
+      <c r="H12" s="16">
+        <f>(D12+G12)/231</f>
+        <v>0.86580086580086579</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.80246913580246915</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="3"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.16610549943883279</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10129870129870133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>132</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>67</v>
+      </c>
+      <c r="H13" s="16">
+        <f>(D13+G13)/231</f>
+        <v>0.8614718614718615</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.77906976744186052</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91034482758620694</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="3"/>
+        <v>0.11688311688311692</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.14270613107822416</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.11164352888490825</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>134</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>66</v>
+      </c>
+      <c r="H14" s="16">
+        <f>(D14+G14)/231</f>
+        <v>0.86580086580086579</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.79518072289156627</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.90540540540540537</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="4"/>
+        <v>0.15881708652792992</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10670410670410668</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>67</v>
+      </c>
+      <c r="H15" s="16">
+        <f>(D15+G15)/231</f>
+        <v>0.88311688311688308</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.8271604938271605</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.91333333333333333</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1385281385281385</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.19079685746352415</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.11463203463203464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC876AF9-6D7A-4C6B-A00B-060F70D59F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F09B95-286D-4EA6-A574-5CEE279E6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -300,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -955,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2964C2C-6F3A-4496-8BCE-57DE1EF97B2E}">
-  <dimension ref="E6:M9"/>
+  <dimension ref="E6:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:M9"/>
+      <selection activeCell="H6" activeCellId="1" sqref="I6 H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1095,56 @@
         <v>0.81290322580645158</v>
       </c>
     </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="21">
+        <f>J7+H7</f>
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <f>G14/F7</f>
+        <v>0.34632034632034631</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="21">
+        <f t="shared" ref="G15:G16" si="3">J8+H8</f>
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H18" si="4">G15/F8</f>
+        <v>0.34632034632034631</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="21">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>0.34632034632034631</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="21">
+        <f t="shared" ref="G15:G18" si="5">J10+I10</f>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1105,7 +1156,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -5,40 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS229_Machine_Learning\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F09B95-286D-4EA6-A574-5CEE279E6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE710A-12C4-4BD4-B490-321BBAFA2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1305" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
     <sheet name="Prelim" sheetId="2" r:id="rId2"/>
     <sheet name="PCA" sheetId="3" r:id="rId3"/>
+    <sheet name="Final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Atttibute</t>
   </si>
@@ -182,6 +172,75 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Total Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>PCA-7 LR</t>
+  </si>
+  <si>
+    <t>(PCA-7 &amp; KM-574) LR</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>4L (5, 3, 4, 2) - Valid</t>
+  </si>
+  <si>
+    <t>3L (64, 32, 40) - Valid</t>
+  </si>
+  <si>
+    <t>2L (88, 50) - Valid</t>
+  </si>
+  <si>
+    <t>2L (88, 50) - Test</t>
+  </si>
+  <si>
+    <t>3L (64, 32, 40) - Test</t>
+  </si>
+  <si>
+    <t>4L (5, 3, 4, 2) - Test</t>
+  </si>
+  <si>
+    <t>2L (10, 7) - Test</t>
+  </si>
+  <si>
+    <t>2L (10, 7), CNN (8, 6) - Valid</t>
+  </si>
+  <si>
+    <t>2L (10, 7), CNN (16, 32) - Valid</t>
+  </si>
+  <si>
+    <t>2L (10, 7), CNN (32, 64) - Valid</t>
+  </si>
+  <si>
+    <t>2L (10, 7), CNN (64, 88) - Valid</t>
+  </si>
+  <si>
+    <t>2L (10, 7), CNN (32, 64) - Test</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -192,7 +251,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +266,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,13 +323,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -301,6 +414,43 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -649,17 +799,17 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.26953125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -691,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,7 +937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,7 +969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,7 +1001,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,7 +1033,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,7 +1065,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -959,18 +1109,18 @@
   <dimension ref="E6:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" activeCellId="1" sqref="I6 H6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:13" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1181,7 @@
         <v>0.79870129870129869</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1063,7 +1213,7 @@
         <v>0.80405405405405406</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1245,7 @@
         <v>0.81290322580645158</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
       <c r="G14" s="21">
         <f>J7+H7</f>
         <v>80</v>
@@ -1105,7 +1255,7 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
       <c r="G15" s="21">
         <f t="shared" ref="G15:G16" si="3">J8+H8</f>
         <v>80</v>
@@ -1115,7 +1265,7 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
       <c r="G16" s="21">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -1125,9 +1275,9 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G17" s="21">
-        <f t="shared" ref="G15:G18" si="5">J10+I10</f>
+        <f t="shared" ref="G17:G18" si="5">J10+I10</f>
         <v>0</v>
       </c>
       <c r="H17" t="e">
@@ -1135,7 +1285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G18" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1155,13 +1305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D7862-5129-47A8-96E8-545EF384A25C}">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D3">
         <v>123</v>
       </c>
@@ -1210,7 +1360,7 @@
         <v>0.79870129870129869</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -1251,7 +1401,7 @@
         <v>-3.8295038295038664E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" s="18" t="s">
         <v>40</v>
       </c>
@@ -1292,7 +1442,7 @@
         <v>3.8464719993382968E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -1333,7 +1483,7 @@
         <v>-2.1631235007031124E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1374,7 +1524,7 @@
         <v>-2.3060273060273029E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1565,7 @@
         <v>-2.6549399967121468E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -1456,7 +1606,7 @@
         <v>-4.5614878948212256E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -1497,7 +1647,7 @@
         <v>-4.5614878948212256E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>46</v>
       </c>
@@ -1538,7 +1688,7 @@
         <v>0.18375484164957845</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1582,7 +1732,7 @@
         <v>0.10129870129870133</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>200</v>
       </c>
@@ -1626,7 +1776,7 @@
         <v>0.11164352888490825</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>134</v>
       </c>
@@ -1664,7 +1814,7 @@
         <v>0.10670410670410668</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D15">
         <v>137</v>
       </c>
@@ -1705,4 +1855,783 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEE15C-BAC6-4641-AFE8-9729A5153754}">
+  <dimension ref="B1:R28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="10" width="9.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11">
+        <v>231</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.7359</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.61639999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>231</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.8609</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.70509999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="29">
+        <v>231</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.3463</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.6341</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="25">
+        <v>231</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.3463</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0.83540000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <f>77*0.3896</f>
+        <v>29.999200000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="11">
+        <v>231</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.7359</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.61639999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="11">
+        <v>231</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.62749999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="25">
+        <v>173</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.93810000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13" s="18">
+        <v>44</v>
+      </c>
+      <c r="O13">
+        <f>M13-N13</f>
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <f>R13-Q13</f>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>26</v>
+      </c>
+      <c r="R13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.76359999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="29">
+        <v>77</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.3896</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0.8276</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="11">
+        <v>77</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.75470000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="29">
+        <v>77</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.3896</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.88</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="32">
+        <v>77</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="I18" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="35">
+        <v>77</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0.3896</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="J19" s="36">
+        <v>0.871</v>
+      </c>
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <v>42</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="23"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="38">
+        <v>77</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0.3896</v>
+      </c>
+      <c r="E21" s="39">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="J21" s="39">
+        <v>0.81479999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11">
+        <v>77</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="11">
+        <v>77</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="32">
+        <v>77</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0.3896</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G24" s="33">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="29">
+        <v>77</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0.6129</v>
+      </c>
+      <c r="I25" s="30">
+        <v>0.76</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="41">
+        <v>77</v>
+      </c>
+      <c r="D26" s="42">
+        <v>0.3896</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="I26" s="42">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J26" s="42">
+        <v>0.88135593220338992</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="22">
+        <f>N13+O13+P13+Q13</f>
+        <v>77</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D28/C27</f>
+        <v>0.38961038961038963</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E28/C27</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F28/(Q13+P13)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G28/(N13+O13)</f>
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="H27" s="16">
+        <f>Q13/(Q13+O13)</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="I27" s="16">
+        <f>Q13/(Q13+P13)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J27" s="16">
+        <f>2*H27*I27/(H27+I27)</f>
+        <v>0.88135593220338992</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <f>P13+Q13</f>
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <f>N13+Q13</f>
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <f>Q13</f>
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <f>N13</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final_Writeup/eda.xlsx
+++ b/Final_Writeup/eda.xlsx
@@ -5,30 +5,43 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS229_Machine_Learning\final_project_cs229_spring2023\Final_Writeup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stanford\CS229 Machine Learning\Final Project\final_project_cs229_spring2023\Final_Writeup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE710A-12C4-4BD4-B490-321BBAFA2193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93536749-6B09-4972-992D-E170DFF2252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID_Desc" sheetId="1" r:id="rId1"/>
     <sheet name="Prelim" sheetId="2" r:id="rId2"/>
     <sheet name="PCA" sheetId="3" r:id="rId3"/>
-    <sheet name="Final" sheetId="4" r:id="rId4"/>
+    <sheet name="Final (2)" sheetId="6" r:id="rId4"/>
+    <sheet name="Final" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>Atttibute</t>
   </si>
@@ -241,6 +254,30 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>Tot Acc</t>
+  </si>
+  <si>
+    <t>Pos Acc</t>
+  </si>
+  <si>
+    <t>Neg Acc</t>
+  </si>
+  <si>
+    <t>MLP: 2L (88, 50) - Valid</t>
+  </si>
+  <si>
+    <t>MLP: 3L (64, 32, 40) - Valid</t>
+  </si>
+  <si>
+    <t>MLP: 4L (5, 3, 4, 2) - Valid</t>
+  </si>
+  <si>
+    <t>MLP: 4L (5, 3, 4, 2) - Test</t>
+  </si>
+  <si>
+    <t>MLP: 2L (10, 7) - Test</t>
   </si>
 </sst>
 </file>
@@ -369,7 +406,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -415,15 +452,12 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -431,7 +465,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -451,6 +485,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -468,6 +508,1128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tot Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$16:$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74029999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88739999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD80-4B2A-A3ED-B8DC9F3CB3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pos Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$16:$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.61250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD80-4B2A-A3ED-B8DC9F3CB3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neg Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$16:$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve Bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92049999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD80-4B2A-A3ED-B8DC9F3CB3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1253264943"/>
+        <c:axId val="1253279823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1253264943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253279823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1253279823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1253264943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,6 +1689,47 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40EC6F91-BFDA-5596-435A-72BFEBCDEC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -796,20 +1999,20 @@
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B2" sqref="B2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -841,7 +2044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -873,7 +2076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,7 +2108,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -937,7 +2140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -969,7 +2172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +2204,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +2236,7 @@
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +2268,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1112,15 +2315,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:13" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:13" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +2352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +2384,7 @@
         <v>0.79870129870129869</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +2416,7 @@
         <v>0.80405405405405406</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E9" s="13" t="s">
         <v>27</v>
       </c>
@@ -1245,7 +2448,7 @@
         <v>0.81290322580645158</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G14" s="21">
         <f>J7+H7</f>
         <v>80</v>
@@ -1255,7 +2458,7 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G15" s="21">
         <f t="shared" ref="G15:G16" si="3">J8+H8</f>
         <v>80</v>
@@ -1265,7 +2468,7 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
       <c r="G16" s="21">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -1275,7 +2478,7 @@
         <v>0.34632034632034631</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="21">
         <f t="shared" ref="G17:G18" si="5">J10+I10</f>
         <v>0</v>
@@ -1285,7 +2488,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -1309,9 +2512,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>29</v>
       </c>
@@ -1334,7 +2537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>123</v>
       </c>
@@ -1360,7 +2563,7 @@
         <v>0.79870129870129869</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +2604,7 @@
         <v>-3.8295038295038664E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" s="18" t="s">
         <v>40</v>
       </c>
@@ -1442,7 +2645,7 @@
         <v>3.8464719993382968E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>41</v>
       </c>
@@ -1483,7 +2686,7 @@
         <v>-2.1631235007031124E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1524,7 +2727,7 @@
         <v>-2.3060273060273029E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -1565,7 +2768,7 @@
         <v>-2.6549399967121468E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -1606,7 +2809,7 @@
         <v>-4.5614878948212256E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>45</v>
       </c>
@@ -1647,7 +2850,7 @@
         <v>-4.5614878948212256E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +2891,7 @@
         <v>0.18375484164957845</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1732,7 +2935,7 @@
         <v>0.10129870129870133</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>200</v>
       </c>
@@ -1776,7 +2979,7 @@
         <v>0.11164352888490825</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>134</v>
       </c>
@@ -1814,7 +3017,7 @@
         <v>0.10670410670410668</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>137</v>
       </c>
@@ -1858,53 +3061,541 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F489-3A78-4EFE-958E-0DDBC36ADC32}">
+  <dimension ref="B1:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="10" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11">
+        <v>231</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.7359</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.61639999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
+        <v>231</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.3463</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.8609</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.70509999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="14">
+        <v>231</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.3463</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.6341</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="44">
+        <v>231</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.3463</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.83540000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="44">
+        <v>173</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0.93810000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11">
+        <v>77</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.76359999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="11">
+        <v>77</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.83120000000000005</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.75470000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="31">
+        <v>77</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="34">
+        <v>77</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.3896</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="37">
+        <v>77</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.3896</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.81479999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="11">
+        <v>77</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.73080000000000001</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="11">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="31">
+        <v>77</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.3896</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0.79310000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="28">
+        <v>77</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.76</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.6129</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.76</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="40">
+        <v>77</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0.3896</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="I17" s="41">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J17" s="41">
+        <v>0.88135593220338992</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEE15C-BAC6-4641-AFE8-9729A5153754}">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="10" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="10" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="11">
@@ -1932,8 +3623,8 @@
         <v>0.61639999999999995</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="11">
@@ -1961,101 +3652,101 @@
         <v>0.70509999999999995</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>231</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.3463</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>0.74029999999999996</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>0.65</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>0.78810000000000002</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>0.61899999999999999</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>0.65</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>0.6341</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>231</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>0.3463</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>0.88739999999999997</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>0.92049999999999998</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0.84619999999999995</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>0.83540000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M7">
         <f>77*0.3896</f>
         <v>29.999200000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="11">
@@ -2083,8 +3774,8 @@
         <v>0.61639999999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="11">
@@ -2112,36 +3803,36 @@
         <v>0.62749999999999995</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>173</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>0.34100000000000003</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>0.95950000000000002</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>0.89829999999999999</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>0.99119999999999997</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>0.98150000000000004</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>0.89829999999999999</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>0.93810000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N12" t="s">
         <v>29</v>
       </c>
@@ -2155,32 +3846,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:18" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="M13">
@@ -2204,8 +3895,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="11">
@@ -2233,37 +3924,37 @@
         <v>0.76359999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>77</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="29">
         <v>0.3896</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>0.87009999999999998</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>0.8</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>0.91490000000000005</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>0.85709999999999997</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="29">
         <v>0.8</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>0.8276</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="11">
@@ -2291,90 +3982,90 @@
         <v>0.75470000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="28" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>77</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>0.3896</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>0.85709999999999997</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>0.73329999999999995</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>0.93620000000000003</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>0.88</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <v>0.73329999999999995</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>77</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>0.32469999999999999</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>0.84419999999999995</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>0.92</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>0.80769999999999997</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <v>0.69699999999999995</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>0.92</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>0.79310000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>77</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <v>0.3896</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>0.89610000000000001</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>0.9</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>0.89359999999999995</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>0.84379999999999999</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>0.9</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>0.871</v>
       </c>
       <c r="M19" t="s">
@@ -2393,8 +4084,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23"/>
+    <row r="20" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2404,37 +4095,37 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>77</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <v>0.3896</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>0.87009999999999998</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>0.73329999999999995</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>0.95740000000000003</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="38">
         <v>0.91669999999999996</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="38">
         <v>0.73329999999999995</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="38">
         <v>0.81479999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="11">
@@ -2462,8 +4153,8 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="11">
@@ -2491,94 +4182,94 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="31" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>77</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <v>0.3896</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>0.84419999999999995</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>0.76670000000000005</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <v>0.89359999999999995</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>0.82140000000000002</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>0.76670000000000005</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <v>0.79310000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>77</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="29">
         <v>0.32469999999999999</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>0.76619999999999999</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>0.76</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>0.76919999999999999</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <v>0.6129</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>0.76</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>0.67859999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="40" t="s">
+    <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="40">
         <v>77</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>0.3896</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>0.90909090909090906</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>0.8666666666666667</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <v>0.93617021276595747</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>0.89655172413793105</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <v>0.8666666666666667</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="41">
         <v>0.88135593220338992</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C27" s="22">
         <f>N13+O13+P13+Q13</f>
         <v>77</v>
@@ -2612,7 +4303,7 @@
         <v>0.88135593220338992</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>P13+Q13</f>
         <v>30</v>
@@ -2634,4 +4325,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E73930-2D0E-4A8F-92C8-69458818AF2E}">
+  <dimension ref="C5:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.7359</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.80130000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.8609</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.65</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.78810000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.92049999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.7359</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.88739999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.6875</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.65</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.80130000000000001</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.8609</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.92049999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>